--- a/Kawaiinese.xlsx
+++ b/Kawaiinese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{802D626C-B05D-4846-8A58-C0FC52214601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F497C4F-6550-48D7-8757-4B3817DEC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11396" xr2:uid="{2C35891D-D90C-46FE-8972-DA2C888066EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
   <si>
     <t>SPANISH</t>
   </si>
@@ -711,6 +711,24 @@
   </si>
   <si>
     <t>Hisutori</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Toto</t>
+  </si>
+  <si>
+    <t>Gran</t>
+  </si>
+  <si>
+    <t>Pequeño</t>
+  </si>
+  <si>
+    <t>Mimi</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3594B-E638-44E1-A19F-ACB16B3058E1}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2000,7 +2018,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -2008,12 +2026,45 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>205</v>
       </c>
       <c r="B114" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>225</v>
+      </c>
+      <c r="B115" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="D116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+      <c r="D117" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Kawaiinese.xlsx
+++ b/Kawaiinese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F497C4F-6550-48D7-8757-4B3817DEC430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2243A4AB-FDD1-48A7-8F08-C2158AF93943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11396" xr2:uid="{2C35891D-D90C-46FE-8972-DA2C888066EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
   <si>
     <t>SPANISH</t>
   </si>
@@ -729,6 +729,30 @@
   </si>
   <si>
     <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Él</t>
+  </si>
+  <si>
+    <t>Keri</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Itsu</t>
+  </si>
+  <si>
+    <t>Pasu</t>
+  </si>
+  <si>
+    <t>(Gram) Pasado</t>
+  </si>
+  <si>
+    <t>(Gram) Futuro</t>
+  </si>
+  <si>
+    <t>Era</t>
   </si>
 </sst>
 </file>
@@ -1109,17 +1133,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3594B-E638-44E1-A19F-ACB16B3058E1}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -2018,7 +2041,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -2026,7 +2049,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -2034,37 +2057,69 @@
         <v>224</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>225</v>
       </c>
       <c r="B115" t="s">
         <v>226</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>227</v>
       </c>
       <c r="B116" t="s">
         <v>226</v>
       </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>228</v>
       </c>
       <c r="B117" t="s">
         <v>229</v>
       </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Kawaiinese.xlsx
+++ b/Kawaiinese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2243A4AB-FDD1-48A7-8F08-C2158AF93943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6A3FE6-DE91-432E-90B6-2C21CF668F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11396" xr2:uid="{2C35891D-D90C-46FE-8972-DA2C888066EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="298">
   <si>
     <t>SPANISH</t>
   </si>
@@ -753,13 +753,190 @@
   </si>
   <si>
     <t>Era</t>
+  </si>
+  <si>
+    <t>Encender</t>
+  </si>
+  <si>
+    <t>onu</t>
+  </si>
+  <si>
+    <t>Rapido</t>
+  </si>
+  <si>
+    <t>Fatsu</t>
+  </si>
+  <si>
+    <t>Rapidamentre</t>
+  </si>
+  <si>
+    <t>Fatsumenu</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Arotu</t>
+  </si>
+  <si>
+    <t>Tambien</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>Descansar</t>
+  </si>
+  <si>
+    <t>Driamu</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Driamo</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Honu</t>
+  </si>
+  <si>
+    <t>Este</t>
+  </si>
+  <si>
+    <t>Kono</t>
+  </si>
+  <si>
+    <t>Ese</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Aquel</t>
+  </si>
+  <si>
+    <t>Esto</t>
+  </si>
+  <si>
+    <t>Eso</t>
+  </si>
+  <si>
+    <t>Aquello</t>
+  </si>
+  <si>
+    <t>Sono</t>
+  </si>
+  <si>
+    <t>Sore</t>
+  </si>
+  <si>
+    <t>Kore</t>
+  </si>
+  <si>
+    <t>Are</t>
+  </si>
+  <si>
+    <t>Cuantos</t>
+  </si>
+  <si>
+    <t>Ikutsu</t>
+  </si>
+  <si>
+    <t>Alguien</t>
+  </si>
+  <si>
+    <t>Dareka</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>Nanika</t>
+  </si>
+  <si>
+    <t>Igual</t>
+  </si>
+  <si>
+    <t>Iruha</t>
+  </si>
+  <si>
+    <t>Mas que</t>
+  </si>
+  <si>
+    <t>Miruha</t>
+  </si>
+  <si>
+    <t>El mas</t>
+  </si>
+  <si>
+    <t>Supra</t>
+  </si>
+  <si>
+    <t>Jibun</t>
+  </si>
+  <si>
+    <t>Jishin</t>
+  </si>
+  <si>
+    <t>Atashi</t>
+  </si>
+  <si>
+    <t>Jibun no</t>
+  </si>
+  <si>
+    <t>Jishin no</t>
+  </si>
+  <si>
+    <t>Uno mismo</t>
+  </si>
+  <si>
+    <t>Si mismo</t>
+  </si>
+  <si>
+    <t>Yo misma</t>
+  </si>
+  <si>
+    <t>De uno mismo</t>
+  </si>
+  <si>
+    <t>De si mismo</t>
+  </si>
+  <si>
+    <t>Si (comp.)</t>
+  </si>
+  <si>
+    <t>Ifu</t>
+  </si>
+  <si>
+    <t>Entonces</t>
+  </si>
+  <si>
+    <t>Sou</t>
+  </si>
+  <si>
+    <t>Aprobar</t>
+  </si>
+  <si>
+    <t>Ganaru</t>
+  </si>
+  <si>
+    <t>Takimusianu</t>
+  </si>
+  <si>
+    <t>Musico</t>
+  </si>
+  <si>
+    <t>Oku</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +948,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,9 +980,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3594B-E638-44E1-A19F-ACB16B3058E1}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,6 +2307,288 @@
         <v>238</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>253</v>
+      </c>
+      <c r="B129" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
+        <v>264</v>
+      </c>
+      <c r="C134" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" t="s">
+        <v>266</v>
+      </c>
+      <c r="C135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C136" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>270</v>
+      </c>
+      <c r="C137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>273</v>
+      </c>
+      <c r="B139" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>275</v>
+      </c>
+      <c r="B140" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" t="s">
+        <v>282</v>
+      </c>
+      <c r="C145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B147" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>293</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Kawaiinese.xlsx
+++ b/Kawaiinese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6A3FE6-DE91-432E-90B6-2C21CF668F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF92A6D-9DA1-4CD2-95BC-55029DF4C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11396" xr2:uid="{2C35891D-D90C-46FE-8972-DA2C888066EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="330">
   <si>
     <t>SPANISH</t>
   </si>
@@ -930,6 +930,102 @@
   </si>
   <si>
     <t>Oku</t>
+  </si>
+  <si>
+    <t>Lugar</t>
+  </si>
+  <si>
+    <t>Pureisu</t>
+  </si>
+  <si>
+    <t>Cuyo / El cual</t>
+  </si>
+  <si>
+    <t>Utu</t>
+  </si>
+  <si>
+    <t>Preciso</t>
+  </si>
+  <si>
+    <t>Purusisu</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Denomu</t>
+  </si>
+  <si>
+    <t>Hace poco tiempo</t>
+  </si>
+  <si>
+    <t>Nouso</t>
+  </si>
+  <si>
+    <t>Un</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Nobaha</t>
+  </si>
+  <si>
+    <t>Norumi</t>
+  </si>
+  <si>
+    <t>Norumimeru</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Normalmente</t>
+  </si>
+  <si>
+    <t>Llevar</t>
+  </si>
+  <si>
+    <t>Kipu</t>
+  </si>
+  <si>
+    <t>Lanza</t>
+  </si>
+  <si>
+    <t>Paropu</t>
+  </si>
+  <si>
+    <t>Escudo</t>
+  </si>
+  <si>
+    <t>Esukudo</t>
+  </si>
+  <si>
+    <t>Viejo</t>
+  </si>
+  <si>
+    <t>Orudo</t>
+  </si>
+  <si>
+    <t>Antiguo</t>
+  </si>
+  <si>
+    <t>Bariia</t>
+  </si>
+  <si>
+    <t>Flaco</t>
+  </si>
+  <si>
+    <t>Caballo</t>
+  </si>
+  <si>
+    <t>Hibaro</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Dogu</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3594B-E638-44E1-A19F-ACB16B3058E1}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2589,6 +2685,142 @@
         <v>297</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>312</v>
+      </c>
+      <c r="B160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+      <c r="B168" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
